--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,6 +849,70 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>moshe</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>menahem</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5352352</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>eyal@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>reerberb</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>verve</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>v345234</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3535345</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>geg@fegr.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
